--- a/files/1201/hw-12-1.xlsx
+++ b/files/1201/hw-12-1.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/canov/Documents/GitHub/HomeWorks/files/1201/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yu.chekanov\Documents\GitHub\HomeWorks\files\1201\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD159C6-BCD0-9B47-B8F0-3E78B6079050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0115C10-2258-4D54-9FB4-2D5244B29648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="2" r:id="rId1"/>
+    <sheet name="Исходник" sheetId="2" r:id="rId1"/>
     <sheet name="employee" sheetId="12" r:id="rId2"/>
     <sheet name="city_division_addr" sheetId="4" r:id="rId3"/>
     <sheet name="division_div_status" sheetId="6" r:id="rId4"/>
@@ -21,13 +21,13 @@
     <sheet name="project" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Лист1!$A$1:$H$30</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">city_division_addr!#REF!</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">division_div_status!$A$1:$B$17</definedName>
     <definedName name="ExternalData_1" localSheetId="4" hidden="1">job_position!$A$1:$B$16</definedName>
     <definedName name="ExternalData_1" localSheetId="5" hidden="1">project!$A$1:$B$29</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Исходник!$A$1:$H$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -61,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="142">
   <si>
     <t>ФИО сотрудника</t>
   </si>
@@ -1071,17 +1070,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1132,29 +1130,13 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1165,6 +1147,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
         <bottom style="thin">
           <color theme="9" tint="0.39997558519241921"/>
         </bottom>
@@ -1172,9 +1160,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
         <bottom style="thin">
           <color theme="9" tint="0.39997558519241921"/>
         </bottom>
@@ -1206,10 +1191,29 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="9" tint="0.39997558519241921"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1220,35 +1224,29 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1383,15 +1381,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{0D946E56-C527-2E40-B06F-5B1A88D05BBC}" name="Таблица13" displayName="Таблица13" ref="A1:I30" totalsRowShown="0">
-  <autoFilter ref="A1:I30" xr:uid="{0D946E56-C527-2E40-B06F-5B1A88D05BBC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I30">
-    <sortCondition ref="B1:B30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{0D946E56-C527-2E40-B06F-5B1A88D05BBC}" name="Таблица13" displayName="Таблица13" ref="A1:J30" totalsRowShown="0">
+  <autoFilter ref="A1:J30" xr:uid="{0D946E56-C527-2E40-B06F-5B1A88D05BBC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J30">
+    <sortCondition ref="E1:E30"/>
   </sortState>
-  <tableColumns count="9">
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{4C0110C0-12FC-CF4A-ABC3-E00170978F35}" name="snils_id"/>
     <tableColumn id="2" xr3:uid="{E2449C68-48E2-D347-8B65-5162DDE8CD39}" name="ФИО сотрудника"/>
     <tableColumn id="3" xr3:uid="{55BAEDE2-7AF4-AF43-97EF-A2669F9F088B}" name="job_position_id"/>
+    <tableColumn id="10" xr3:uid="{D4FB5413-C68C-4C0E-B209-8D4EBAB2B37A}" name="div_status_id"/>
     <tableColumn id="4" xr3:uid="{E475E9BA-EB9F-AE40-A4D9-DF21A0F482EB}" name="division_id"/>
     <tableColumn id="8" xr3:uid="{47A6036F-4B7F-9D4B-9ADD-AD55714F5563}" name="city_id"/>
     <tableColumn id="9" xr3:uid="{8F1FC795-52B5-9047-9F6B-29898CD15F62}" name="div_addr_id"/>
@@ -1408,14 +1407,14 @@
   <autoFilter ref="A1:B4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
     <tableColumn id="4" xr3:uid="{371507BC-0357-1C47-86F3-64ACA61C99E6}" name="city_id"/>
-    <tableColumn id="3" xr3:uid="{360D9026-2CE3-DC4E-A933-58D6CA25A207}" name="Город" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{360D9026-2CE3-DC4E-A933-58D6CA25A207}" name="Город" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2ECA569C-2881-F14B-8993-AC176DF03198}" name="Таблица9" displayName="Таблица9" ref="D1:E4" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2ECA569C-2881-F14B-8993-AC176DF03198}" name="Таблица9" displayName="Таблица9" ref="D1:E4" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="D1:E4" xr:uid="{2ECA569C-2881-F14B-8993-AC176DF03198}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{3ACB35CD-27F4-9540-B1C8-92925AC69437}" name="div_addr_id"/>
@@ -1429,16 +1428,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1CB52C51-54AD-F148-8C92-EA9B7316FA79}" name="_select_concat_ws_p_last_name_p_first_name_p_middle_name_ФИО_сот_202108111259345" displayName="_select_concat_ws_p_last_name_p_first_name_p_middle_name_ФИО_сот_202108111259345" ref="A1:C17" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:C17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="4" xr3:uid="{68492C0D-2570-EB4D-AA9D-D1C6202AFC89}" uniqueName="4" name="division_id" queryTableFieldId="4" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{5CED28A7-8729-D944-9F85-39FC2578E3D9}" uniqueName="5" name="Структурное подразделение" queryTableFieldId="5" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{CDEA8EB9-B11A-AA49-B2CC-BBBB427E59A4}" uniqueName="3" name="div_status_id" queryTableFieldId="11" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{68492C0D-2570-EB4D-AA9D-D1C6202AFC89}" uniqueName="4" name="division_id" queryTableFieldId="4" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{5CED28A7-8729-D944-9F85-39FC2578E3D9}" uniqueName="5" name="Структурное подразделение" queryTableFieldId="5" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{CDEA8EB9-B11A-AA49-B2CC-BBBB427E59A4}" uniqueName="3" name="div_status_id" queryTableFieldId="11" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{16EAD472-C080-4746-A9C4-B6594E52EBDE}" name="Таблица8" displayName="Таблица8" ref="E1:F4" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{16EAD472-C080-4746-A9C4-B6594E52EBDE}" name="Таблица8" displayName="Таблица8" ref="E1:F4" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="E1:F4" xr:uid="{16EAD472-C080-4746-A9C4-B6594E52EBDE}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{3E4F83B8-7A0E-6144-B6B7-BC3E233E9A21}" name="div_status_id"/>
@@ -1455,8 +1454,8 @@
     <sortCondition ref="B1:B15"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{38E1249F-F7C6-954E-9EA7-1D88CAC02AD1}" uniqueName="2" name="job_position_id" queryTableFieldId="2" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{A0D7AF89-7304-E04C-84B0-155D3E637E6E}" uniqueName="3" name="Должность" queryTableFieldId="3" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{38E1249F-F7C6-954E-9EA7-1D88CAC02AD1}" uniqueName="2" name="job_position_id" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{A0D7AF89-7304-E04C-84B0-155D3E637E6E}" uniqueName="3" name="Должность" queryTableFieldId="3" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1469,8 +1468,8 @@
     <sortCondition ref="B1:B29"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="7" xr3:uid="{98FAA33E-1775-3B43-A0BC-A09B1C4358F9}" uniqueName="7" name="project_id" queryTableFieldId="7" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{62B3FD80-25D4-B84D-B0A7-F5DD6FEA35DE}" uniqueName="8" name="Проект на который назначен" queryTableFieldId="8" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{98FAA33E-1775-3B43-A0BC-A09B1C4358F9}" uniqueName="7" name="project_id" queryTableFieldId="7" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{62B3FD80-25D4-B84D-B0A7-F5DD6FEA35DE}" uniqueName="8" name="Проект на который назначен" queryTableFieldId="8" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1776,22 +1775,22 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" customWidth="1"/>
+    <col min="5" max="5" width="44.28515625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="8" max="8" width="40.83203125" customWidth="1"/>
+    <col min="8" max="8" width="40.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1817,7 +1816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1843,7 +1842,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1869,7 +1868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -1895,7 +1894,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1921,7 +1920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -1947,7 +1946,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -1973,7 +1972,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -1999,7 +1998,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -2025,7 +2024,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -2051,7 +2050,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -2077,7 +2076,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -2103,7 +2102,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -2129,7 +2128,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -2155,7 +2154,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -2181,7 +2180,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -2207,7 +2206,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2233,7 +2232,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>108</v>
       </c>
@@ -2259,7 +2258,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -2285,7 +2284,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -2311,7 +2310,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -2337,7 +2336,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -2363,7 +2362,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>120</v>
       </c>
@@ -2389,7 +2388,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -2415,7 +2414,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -2441,7 +2440,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2467,7 +2466,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -2493,7 +2492,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -2519,7 +2518,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -2545,7 +2544,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -2582,25 +2581,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24F9554-6AE9-4C4E-8F81-AB0AFFBF4197}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -2611,25 +2611,28 @@
         <v>140</v>
       </c>
       <c r="D1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" t="s">
         <v>134</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>131</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>135</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
       <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>12345678912</v>
       </c>
@@ -2640,25 +2643,28 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
         <v>260713</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>117</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12345678913</v>
       </c>
@@ -2675,19 +2681,22 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>230313</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>59</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>12345678914</v>
       </c>
@@ -2698,25 +2707,28 @@
         <v>13</v>
       </c>
       <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>31217</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>16</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12345678915</v>
       </c>
@@ -2727,199 +2739,220 @@
         <v>11</v>
       </c>
       <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>171117</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>16</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>12345678938</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>230620</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>12345678916</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>91</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>14</v>
       </c>
-      <c r="D6">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
         <v>4</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>31017</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I7" t="s">
         <v>64</v>
       </c>
-      <c r="I6">
+      <c r="J7">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>12345678917</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>75</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
         <v>5</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <v>260316</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I8" t="s">
         <v>52</v>
       </c>
-      <c r="I7">
+      <c r="J8">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>12345678918</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>95</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
         <v>5</v>
       </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
         <v>130516</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I9" t="s">
         <v>56</v>
       </c>
-      <c r="I8">
+      <c r="J9">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>12345678919</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>86</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>5</v>
       </c>
-      <c r="D9">
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
         <v>5</v>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
         <v>231113</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I10" t="s">
         <v>48</v>
       </c>
-      <c r="I9">
+      <c r="J10">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>12345678920</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>58</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>4</v>
       </c>
-      <c r="D10">
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
         <v>6</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
         <v>231017</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I11" t="s">
         <v>68</v>
       </c>
-      <c r="I10">
+      <c r="J11">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>12345678921</v>
-      </c>
-      <c r="B11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>16</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>31215</v>
-      </c>
-      <c r="H11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12345678922</v>
       </c>
@@ -2930,25 +2963,28 @@
         <v>13</v>
       </c>
       <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
         <v>7</v>
       </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
         <v>31017</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>79</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12345678923</v>
       </c>
@@ -2959,25 +2995,28 @@
         <v>6</v>
       </c>
       <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
         <v>7</v>
       </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
         <v>160317</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>38</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12345678924</v>
       </c>
@@ -2988,25 +3027,28 @@
         <v>13</v>
       </c>
       <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
         <v>8</v>
       </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
         <v>10313</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>42</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12345678925</v>
       </c>
@@ -3017,25 +3059,28 @@
         <v>2</v>
       </c>
       <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
         <v>9</v>
       </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
         <v>130720</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>92</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12345678926</v>
       </c>
@@ -3046,25 +3091,28 @@
         <v>14</v>
       </c>
       <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
         <v>9</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <v>160717</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>87</v>
       </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12345678927</v>
       </c>
@@ -3075,25 +3123,28 @@
         <v>2</v>
       </c>
       <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
         <v>10</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
       </c>
       <c r="F17">
         <v>3</v>
       </c>
       <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
         <v>211112</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>126</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12345678928</v>
       </c>
@@ -3104,25 +3155,28 @@
         <v>5</v>
       </c>
       <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
         <v>10</v>
       </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
         <v>130317</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>121</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12345678929</v>
       </c>
@@ -3133,25 +3187,28 @@
         <v>8</v>
       </c>
       <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>11</v>
       </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
         <v>10312</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>96</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12345678930</v>
       </c>
@@ -3162,312 +3219,345 @@
         <v>2</v>
       </c>
       <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
         <v>11</v>
       </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
         <v>230312</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>101</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>12345678937</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>200113</v>
+      </c>
+      <c r="I21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>12345678931</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>81</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>9</v>
       </c>
-      <c r="D21">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
         <v>13</v>
       </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>261113</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I22" t="s">
         <v>35</v>
       </c>
-      <c r="I21">
+      <c r="J22">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>12345678939</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>13</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>220616</v>
+      </c>
+      <c r="I23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>12345678940</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>13</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>220317</v>
+      </c>
+      <c r="I24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>12345678932</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" t="s">
         <v>100</v>
       </c>
-      <c r="C22">
+      <c r="C25">
         <v>12</v>
       </c>
-      <c r="D22">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
         <v>14</v>
       </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
         <v>270713</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I25" t="s">
         <v>114</v>
       </c>
-      <c r="I22">
+      <c r="J25">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>12345678933</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" t="s">
         <v>120</v>
       </c>
-      <c r="C23">
+      <c r="C26">
         <v>7</v>
       </c>
-      <c r="D23">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
         <v>14</v>
       </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
         <v>250117</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I26" t="s">
         <v>42</v>
       </c>
-      <c r="I23">
+      <c r="J26">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>12345678934</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B27" t="s">
         <v>47</v>
       </c>
-      <c r="C24">
+      <c r="C27">
         <v>15</v>
       </c>
-      <c r="D24">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
         <v>14</v>
       </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
         <v>230517</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I27" t="s">
         <v>105</v>
       </c>
-      <c r="I24">
+      <c r="J27">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>12345678935</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
         <v>110</v>
       </c>
-      <c r="C25">
+      <c r="C28">
         <v>14</v>
       </c>
-      <c r="D25">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
         <v>14</v>
       </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
         <v>300313</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I28" t="s">
         <v>111</v>
       </c>
-      <c r="I25">
+      <c r="J28">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>12345678936</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B29" t="s">
         <v>8</v>
       </c>
-      <c r="C26">
+      <c r="C29">
         <v>3</v>
       </c>
-      <c r="D26">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
         <v>15</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
         <v>10713</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I29" t="s">
         <v>82</v>
       </c>
-      <c r="I26">
+      <c r="J29">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>12345678937</v>
-      </c>
-      <c r="B27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27">
-        <v>13</v>
-      </c>
-      <c r="D27">
-        <v>12</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>200113</v>
-      </c>
-      <c r="H27" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>12345678938</v>
-      </c>
-      <c r="B28" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>12345678921</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30">
         <v>15</v>
       </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>230620</v>
-      </c>
-      <c r="H28" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>12345678939</v>
-      </c>
-      <c r="B29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29">
-        <v>15</v>
-      </c>
-      <c r="D29">
-        <v>13</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="G29">
-        <v>220616</v>
-      </c>
-      <c r="H29" t="s">
-        <v>30</v>
-      </c>
-      <c r="I29">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>12345678940</v>
-      </c>
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30">
-        <v>13</v>
-      </c>
       <c r="D30">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>220317</v>
-      </c>
-      <c r="H30" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>31215</v>
+      </c>
+      <c r="I30" t="s">
+        <v>72</v>
+      </c>
+      <c r="J30">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3487,33 +3577,33 @@
       <selection activeCell="D1" sqref="D1:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>131</v>
       </c>
       <c r="B1" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>128</v>
       </c>
       <c r="D2" s="1">
@@ -3523,11 +3613,11 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>129</v>
       </c>
       <c r="D3" s="2">
@@ -3537,17 +3627,17 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3566,43 +3656,43 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>134</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2">
         <v>2</v>
       </c>
       <c r="E2" s="1">
@@ -3612,14 +3702,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3">
         <v>2</v>
       </c>
       <c r="E3" s="2">
@@ -3629,14 +3719,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4">
         <v>2</v>
       </c>
       <c r="E4" s="1">
@@ -3646,146 +3736,146 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17">
         <v>2</v>
       </c>
     </row>
@@ -3807,16 +3897,16 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>140</v>
       </c>
@@ -3824,7 +3914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3832,7 +3922,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3840,7 +3930,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3848,7 +3938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3856,7 +3946,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3864,7 +3954,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3872,7 +3962,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3880,7 +3970,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3888,7 +3978,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3896,7 +3986,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3904,7 +3994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3912,7 +4002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3920,7 +4010,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3928,7 +4018,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3936,11 +4026,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3958,16 +4048,16 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -3975,7 +4065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3983,7 +4073,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3991,7 +4081,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3999,7 +4089,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4007,7 +4097,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4015,7 +4105,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4023,7 +4113,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4031,7 +4121,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4039,7 +4129,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4047,7 +4137,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4055,7 +4145,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4063,7 +4153,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4071,7 +4161,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4079,7 +4169,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4087,7 +4177,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4095,7 +4185,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4103,7 +4193,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4111,7 +4201,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4119,7 +4209,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4127,7 +4217,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4135,7 +4225,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4143,7 +4233,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4151,7 +4241,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4159,7 +4249,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4167,7 +4257,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4175,7 +4265,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4183,7 +4273,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4191,7 +4281,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>

--- a/files/1201/hw-12-1.xlsx
+++ b/files/1201/hw-12-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yu.chekanov\Documents\GitHub\HomeWorks\files\1201\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/canov/Documents/GitHub/HomeWorks/files/1201/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0115C10-2258-4D54-9FB4-2D5244B29648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90440F7A-CE47-AF4B-B139-165D06A4782B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Исходник" sheetId="2" r:id="rId1"/>
@@ -21,11 +21,11 @@
     <sheet name="project" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Исходник!$A$1:$H$30</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">city_division_addr!#REF!</definedName>
-    <definedName name="ExternalData_1" localSheetId="3" hidden="1">division_div_status!$A$1:$B$17</definedName>
-    <definedName name="ExternalData_1" localSheetId="4" hidden="1">job_position!$A$1:$B$16</definedName>
-    <definedName name="ExternalData_1" localSheetId="5" hidden="1">project!$A$1:$B$29</definedName>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Исходник!$A$1:$H$30</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">division_div_status!$B$3:$C$19</definedName>
+    <definedName name="ExternalData_1" localSheetId="4" hidden="1">job_position!$B$3:$C$18</definedName>
+    <definedName name="ExternalData_1" localSheetId="5" hidden="1">project!$B$3:$C$31</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="156">
   <si>
     <t>ФИО сотрудника</t>
   </si>
@@ -461,9 +461,6 @@
     <t>Ростовская обл,  ул 2-я Краснодарская, д. 135/2</t>
   </si>
   <si>
-    <t>snils_id</t>
-  </si>
-  <si>
     <t>division_id</t>
   </si>
   <si>
@@ -486,13 +483,58 @@
   </si>
   <si>
     <t>project_id</t>
+  </si>
+  <si>
+    <t>First_Last_name</t>
+  </si>
+  <si>
+    <t>HiringDate</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>DivAddres</t>
+  </si>
+  <si>
+    <t>StructuralUnit</t>
+  </si>
+  <si>
+    <t>UnitType</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>DivStatus</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>DivAddress</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>JobPosition</t>
+  </si>
+  <si>
+    <t>JobPposition</t>
+  </si>
+  <si>
+    <t>Projects</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,8 +694,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -845,8 +895,14 @@
         <bgColor theme="9" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1025,6 +1081,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1070,7 +1167,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1080,6 +1177,15 @@
     <xf numFmtId="0" fontId="13" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1381,21 +1487,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{0D946E56-C527-2E40-B06F-5B1A88D05BBC}" name="Таблица13" displayName="Таблица13" ref="A1:J30" totalsRowShown="0">
-  <autoFilter ref="A1:J30" xr:uid="{0D946E56-C527-2E40-B06F-5B1A88D05BBC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J30">
-    <sortCondition ref="E1:E30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{0D946E56-C527-2E40-B06F-5B1A88D05BBC}" name="Таблица13" displayName="Таблица13" ref="B3:K32" totalsRowShown="0">
+  <autoFilter ref="B3:K32" xr:uid="{0D946E56-C527-2E40-B06F-5B1A88D05BBC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:K32">
+    <sortCondition ref="F3:F32"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4C0110C0-12FC-CF4A-ABC3-E00170978F35}" name="snils_id"/>
-    <tableColumn id="2" xr3:uid="{E2449C68-48E2-D347-8B65-5162DDE8CD39}" name="ФИО сотрудника"/>
+    <tableColumn id="1" xr3:uid="{4C0110C0-12FC-CF4A-ABC3-E00170978F35}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{E2449C68-48E2-D347-8B65-5162DDE8CD39}" name="First_Last_name"/>
     <tableColumn id="3" xr3:uid="{55BAEDE2-7AF4-AF43-97EF-A2669F9F088B}" name="job_position_id"/>
     <tableColumn id="10" xr3:uid="{D4FB5413-C68C-4C0E-B209-8D4EBAB2B37A}" name="div_status_id"/>
     <tableColumn id="4" xr3:uid="{E475E9BA-EB9F-AE40-A4D9-DF21A0F482EB}" name="division_id"/>
     <tableColumn id="8" xr3:uid="{47A6036F-4B7F-9D4B-9ADD-AD55714F5563}" name="city_id"/>
     <tableColumn id="9" xr3:uid="{8F1FC795-52B5-9047-9F6B-29898CD15F62}" name="div_addr_id"/>
-    <tableColumn id="5" xr3:uid="{1060C020-5F4E-D946-BEC3-0D21B7408F0A}" name="Дата найма"/>
-    <tableColumn id="6" xr3:uid="{E7619078-B72D-6047-89E6-AE3D574857D8}" name="Оклад"/>
+    <tableColumn id="5" xr3:uid="{1060C020-5F4E-D946-BEC3-0D21B7408F0A}" name="HiringDate"/>
+    <tableColumn id="6" xr3:uid="{E7619078-B72D-6047-89E6-AE3D574857D8}" name="Salary"/>
     <tableColumn id="7" xr3:uid="{45488F07-5C45-9A4E-A2D8-6D1F347F0982}" name="project_id"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1403,10 +1509,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{06CC9DA8-79BF-E64A-9A47-067D7705067B}" name="_select_concat_ws_p_last_name_p_first_name_p_middle_name_ФИО_сот_2021081112593" displayName="_select_concat_ws_p_last_name_p_first_name_p_middle_name_ФИО_сот_2021081112593" ref="A1:B4" totalsRowShown="0">
-  <autoFilter ref="A1:B4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{06CC9DA8-79BF-E64A-9A47-067D7705067B}" name="_select_concat_ws_p_last_name_p_first_name_p_middle_name_ФИО_сот_2021081112593" displayName="_select_concat_ws_p_last_name_p_first_name_p_middle_name_ФИО_сот_2021081112593" ref="B3:C6" totalsRowShown="0">
+  <autoFilter ref="B3:C6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="4" xr3:uid="{371507BC-0357-1C47-86F3-64ACA61C99E6}" name="city_id"/>
+    <tableColumn id="4" xr3:uid="{371507BC-0357-1C47-86F3-64ACA61C99E6}" name="Id"/>
     <tableColumn id="3" xr3:uid="{360D9026-2CE3-DC4E-A933-58D6CA25A207}" name="Город" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1414,22 +1520,22 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2ECA569C-2881-F14B-8993-AC176DF03198}" name="Таблица9" displayName="Таблица9" ref="D1:E4" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="D1:E4" xr:uid="{2ECA569C-2881-F14B-8993-AC176DF03198}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2ECA569C-2881-F14B-8993-AC176DF03198}" name="Таблица9" displayName="Таблица9" ref="E3:F6" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="E3:F6" xr:uid="{2ECA569C-2881-F14B-8993-AC176DF03198}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3ACB35CD-27F4-9540-B1C8-92925AC69437}" name="div_addr_id"/>
-    <tableColumn id="2" xr3:uid="{F05F9FCC-1C8B-C24C-8062-0591C7842BCF}" name="Адрес филиала"/>
+    <tableColumn id="1" xr3:uid="{3ACB35CD-27F4-9540-B1C8-92925AC69437}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{F05F9FCC-1C8B-C24C-8062-0591C7842BCF}" name="DivAddres"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1CB52C51-54AD-F148-8C92-EA9B7316FA79}" name="_select_concat_ws_p_last_name_p_first_name_p_middle_name_ФИО_сот_202108111259345" displayName="_select_concat_ws_p_last_name_p_first_name_p_middle_name_ФИО_сот_202108111259345" ref="A1:C17" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1CB52C51-54AD-F148-8C92-EA9B7316FA79}" name="_select_concat_ws_p_last_name_p_first_name_p_middle_name_ФИО_сот_202108111259345" displayName="_select_concat_ws_p_last_name_p_first_name_p_middle_name_ФИО_сот_202108111259345" ref="B3:D19" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="B3:D19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="4" xr3:uid="{68492C0D-2570-EB4D-AA9D-D1C6202AFC89}" uniqueName="4" name="division_id" queryTableFieldId="4" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{5CED28A7-8729-D944-9F85-39FC2578E3D9}" uniqueName="5" name="Структурное подразделение" queryTableFieldId="5" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{68492C0D-2570-EB4D-AA9D-D1C6202AFC89}" uniqueName="4" name="Id" queryTableFieldId="4" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{5CED28A7-8729-D944-9F85-39FC2578E3D9}" uniqueName="5" name="StructuralUnit" queryTableFieldId="5" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{CDEA8EB9-B11A-AA49-B2CC-BBBB427E59A4}" uniqueName="3" name="div_status_id" queryTableFieldId="11" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1437,38 +1543,38 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{16EAD472-C080-4746-A9C4-B6594E52EBDE}" name="Таблица8" displayName="Таблица8" ref="E1:F4" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="E1:F4" xr:uid="{16EAD472-C080-4746-A9C4-B6594E52EBDE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{16EAD472-C080-4746-A9C4-B6594E52EBDE}" name="Таблица8" displayName="Таблица8" ref="F3:G6" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="F3:G6" xr:uid="{16EAD472-C080-4746-A9C4-B6594E52EBDE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3E4F83B8-7A0E-6144-B6B7-BC3E233E9A21}" name="div_status_id"/>
-    <tableColumn id="2" xr3:uid="{CF394F92-90DB-204A-AEEB-4353E3260A01}" name="Структурное подразделение"/>
+    <tableColumn id="1" xr3:uid="{3E4F83B8-7A0E-6144-B6B7-BC3E233E9A21}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{CF394F92-90DB-204A-AEEB-4353E3260A01}" name="UnitType"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DD1B873B-9B73-EF49-9C39-432363FA9D7F}" name="_select_concat_ws_p_last_name_p_first_name_p_middle_name_ФИО_сот_2021081112593456" displayName="_select_concat_ws_p_last_name_p_first_name_p_middle_name_ФИО_сот_2021081112593456" ref="A1:B16" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B15">
-    <sortCondition ref="B1:B15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DD1B873B-9B73-EF49-9C39-432363FA9D7F}" name="_select_concat_ws_p_last_name_p_first_name_p_middle_name_ФИО_сот_2021081112593456" displayName="_select_concat_ws_p_last_name_p_first_name_p_middle_name_ФИО_сот_2021081112593456" ref="B3:C18" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="B3:C18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:C17">
+    <sortCondition ref="C3:C17"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{38E1249F-F7C6-954E-9EA7-1D88CAC02AD1}" uniqueName="2" name="job_position_id" queryTableFieldId="2" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{A0D7AF89-7304-E04C-84B0-155D3E637E6E}" uniqueName="3" name="Должность" queryTableFieldId="3" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{38E1249F-F7C6-954E-9EA7-1D88CAC02AD1}" uniqueName="2" name="Id" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{A0D7AF89-7304-E04C-84B0-155D3E637E6E}" uniqueName="3" name="JobPosition" queryTableFieldId="3" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{115BF8DE-6BB8-F84D-B440-BCF53A8B8408}" name="_select_concat_ws_p_last_name_p_first_name_p_middle_name_ФИО_сот_20210811125934567" displayName="_select_concat_ws_p_last_name_p_first_name_p_middle_name_ФИО_сот_20210811125934567" ref="A1:B29" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:B29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B29">
-    <sortCondition ref="B1:B29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{115BF8DE-6BB8-F84D-B440-BCF53A8B8408}" name="_select_concat_ws_p_last_name_p_first_name_p_middle_name_ФИО_сот_20210811125934567" displayName="_select_concat_ws_p_last_name_p_first_name_p_middle_name_ФИО_сот_20210811125934567" ref="B3:C31" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="B3:C31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:C31">
+    <sortCondition ref="C3:C31"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="7" xr3:uid="{98FAA33E-1775-3B43-A0BC-A09B1C4358F9}" uniqueName="7" name="project_id" queryTableFieldId="7" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{98FAA33E-1775-3B43-A0BC-A09B1C4358F9}" uniqueName="7" name="Id" queryTableFieldId="7" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{62B3FD80-25D4-B84D-B0A7-F5DD6FEA35DE}" uniqueName="8" name="Проект на который назначен" queryTableFieldId="8" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1774,23 +1880,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="44.28515625" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="45" customWidth="1"/>
-    <col min="8" max="8" width="40.85546875" customWidth="1"/>
+    <col min="8" max="8" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1816,7 +1922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1842,7 +1948,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1868,7 +1974,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -1894,7 +2000,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1920,7 +2026,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -1946,7 +2052,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -1972,7 +2078,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -1998,7 +2104,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -2024,7 +2130,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -2050,7 +2156,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -2076,7 +2182,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -2102,7 +2208,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -2128,7 +2234,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -2154,7 +2260,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -2180,7 +2286,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>113</v>
       </c>
@@ -2206,7 +2312,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2232,7 +2338,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>108</v>
       </c>
@@ -2258,7 +2364,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -2284,7 +2390,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -2310,7 +2416,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -2336,7 +2442,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -2362,7 +2468,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>120</v>
       </c>
@@ -2388,7 +2494,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -2414,7 +2520,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -2440,7 +2546,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2466,7 +2572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -2492,7 +2598,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -2518,7 +2624,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -2544,7 +2650,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -2581,986 +2687,1004 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24F9554-6AE9-4C4E-8F81-AB0AFFBF4197}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="B2:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" t="s">
         <v>133</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="G3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K3" t="s">
         <v>140</v>
       </c>
-      <c r="D1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>260713</v>
+      </c>
+      <c r="J4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>230313</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>31217</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>171117</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>12345678912</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>230620</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>31017</v>
+      </c>
+      <c r="J9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>260316</v>
+      </c>
+      <c r="J10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>130516</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>231113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>231017</v>
+      </c>
+      <c r="J13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>31017</v>
+      </c>
+      <c r="J14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>160317</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>10313</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>130720</v>
+      </c>
+      <c r="J17" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>160717</v>
+      </c>
+      <c r="J18" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>211112</v>
+      </c>
+      <c r="J19" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>130317</v>
+      </c>
+      <c r="J20" t="s">
+        <v>121</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>11</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>10312</v>
+      </c>
+      <c r="J21" t="s">
+        <v>96</v>
+      </c>
+      <c r="K21">
         <v>25</v>
       </c>
-      <c r="C2">
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
         <v>11</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>230312</v>
+      </c>
+      <c r="J22" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>200113</v>
+      </c>
+      <c r="J23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>261113</v>
+      </c>
+      <c r="J24" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>13</v>
+      </c>
+      <c r="G25">
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="H25">
         <v>3</v>
       </c>
-      <c r="H2">
-        <v>260713</v>
-      </c>
-      <c r="I2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J2">
+      <c r="I25">
+        <v>220616</v>
+      </c>
+      <c r="J25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>12345678913</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26">
+        <v>13</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>13</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>220317</v>
+      </c>
+      <c r="J26" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>14</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>270713</v>
+      </c>
+      <c r="J27" t="s">
+        <v>114</v>
+      </c>
+      <c r="K27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>14</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>250117</v>
+      </c>
+      <c r="J28" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29">
         <v>15</v>
       </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>230313</v>
-      </c>
-      <c r="I3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>12345678914</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>14</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>230517</v>
+      </c>
+      <c r="J29" t="s">
+        <v>105</v>
+      </c>
+      <c r="K29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30">
+        <v>14</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>14</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>300313</v>
+      </c>
+      <c r="J30" t="s">
+        <v>111</v>
+      </c>
+      <c r="K30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>31217</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>15</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>10713</v>
+      </c>
+      <c r="J31" t="s">
+        <v>82</v>
+      </c>
+      <c r="K31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32">
+        <v>15</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
         <v>16</v>
       </c>
-      <c r="J4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>12345678915</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5">
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>31215</v>
+      </c>
+      <c r="J32" t="s">
+        <v>72</v>
+      </c>
+      <c r="K32">
         <v>11</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>171117</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>12345678938</v>
-      </c>
-      <c r="B6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>230620</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>12345678916</v>
-      </c>
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>31017</v>
-      </c>
-      <c r="I7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>12345678917</v>
-      </c>
-      <c r="B8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>260316</v>
-      </c>
-      <c r="I8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>12345678918</v>
-      </c>
-      <c r="B9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>130516</v>
-      </c>
-      <c r="I9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>12345678919</v>
-      </c>
-      <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>231113</v>
-      </c>
-      <c r="I10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>12345678920</v>
-      </c>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>231017</v>
-      </c>
-      <c r="I11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>12345678922</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12">
-        <v>13</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>7</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>31017</v>
-      </c>
-      <c r="I12" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12345678923</v>
-      </c>
-      <c r="B13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13">
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>7</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>160317</v>
-      </c>
-      <c r="I13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12345678924</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>8</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>10313</v>
-      </c>
-      <c r="I14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>12345678925</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>9</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>130720</v>
-      </c>
-      <c r="I15" t="s">
-        <v>92</v>
-      </c>
-      <c r="J15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>12345678926</v>
-      </c>
-      <c r="B16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16">
-        <v>14</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>9</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>160717</v>
-      </c>
-      <c r="I16" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>12345678927</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>211112</v>
-      </c>
-      <c r="I17" t="s">
-        <v>126</v>
-      </c>
-      <c r="J17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>12345678928</v>
-      </c>
-      <c r="B18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>10</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>130317</v>
-      </c>
-      <c r="I18" t="s">
-        <v>121</v>
-      </c>
-      <c r="J18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>12345678929</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19">
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>11</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>10312</v>
-      </c>
-      <c r="I19" t="s">
-        <v>96</v>
-      </c>
-      <c r="J19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>12345678930</v>
-      </c>
-      <c r="B20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>11</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>230312</v>
-      </c>
-      <c r="I20" t="s">
-        <v>101</v>
-      </c>
-      <c r="J20">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>12345678937</v>
-      </c>
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21">
-        <v>13</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>12</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>200113</v>
-      </c>
-      <c r="I21" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>12345678931</v>
-      </c>
-      <c r="B22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22">
-        <v>9</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>13</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>261113</v>
-      </c>
-      <c r="I22" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>12345678939</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23">
-        <v>15</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>13</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23">
-        <v>220616</v>
-      </c>
-      <c r="I23" t="s">
-        <v>30</v>
-      </c>
-      <c r="J23">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>12345678940</v>
-      </c>
-      <c r="B24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24">
-        <v>13</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>13</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>220317</v>
-      </c>
-      <c r="I24" t="s">
-        <v>38</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>12345678932</v>
-      </c>
-      <c r="B25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25">
-        <v>12</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>14</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>270713</v>
-      </c>
-      <c r="I25" t="s">
-        <v>114</v>
-      </c>
-      <c r="J25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>12345678933</v>
-      </c>
-      <c r="B26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26">
-        <v>7</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>14</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>250117</v>
-      </c>
-      <c r="I26" t="s">
-        <v>42</v>
-      </c>
-      <c r="J26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>12345678934</v>
-      </c>
-      <c r="B27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27">
-        <v>15</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>14</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>230517</v>
-      </c>
-      <c r="I27" t="s">
-        <v>105</v>
-      </c>
-      <c r="J27">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>12345678935</v>
-      </c>
-      <c r="B28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28">
-        <v>14</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>14</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>300313</v>
-      </c>
-      <c r="I28" t="s">
-        <v>111</v>
-      </c>
-      <c r="J28">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>12345678936</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>15</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="H29">
-        <v>10713</v>
-      </c>
-      <c r="I29" t="s">
-        <v>82</v>
-      </c>
-      <c r="J29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>12345678921</v>
-      </c>
-      <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30">
-        <v>15</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30">
-        <v>16</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>31215</v>
-      </c>
-      <c r="I30" t="s">
-        <v>72</v>
-      </c>
-      <c r="J30">
-        <v>11</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:K2"/>
+  </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3571,77 +3695,97 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A009CEF2-BFD9-5541-AE1F-E8BA72B364D5}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E4"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="5" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C6" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="7">
+      <c r="E6" s="7">
         <v>3</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>132</v>
       </c>
     </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <f>LEN(F6)</f>
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="2">
@@ -3653,236 +3797,259 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0AC584-F5AA-414E-9A9C-92A3B99D2C05}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="B2:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="F2" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <f>LEN(C16)</f>
         <v>49</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D23:F42">
-    <sortCondition ref="D23:D42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E25:G44">
+    <sortCondition ref="E25:E44"/>
   </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="2">
@@ -3894,147 +4061,163 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A6DA637-0DB8-694D-B589-83BE3B831321}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="B2:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C18" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <f>LEN(C9)</f>
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
@@ -4045,251 +4228,267 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E4D0CA-60BB-D44E-88C2-D7CCC5E7B0AA}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="B2:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C20" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C21" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C23" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C27" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C30" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C31" t="s">
         <v>62</v>
       </c>
     </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <f>LEN(C6)</f>
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
